--- a/templates/export/stops.xlsx
+++ b/templates/export/stops.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_7A20A49EB419FB0E59900E0EE118CD6EAC9DCDB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C3C649E-D63F-469A-AB2B-456D08D33138}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Автор</author>
+    <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -74,51 +75,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>Report type:</t>
-  </si>
-  <si>
-    <t>Stops</t>
-  </si>
-  <si>
-    <t>Device:</t>
-  </si>
-  <si>
     <t>${device.deviceName}</t>
   </si>
   <si>
-    <t>Group:</t>
-  </si>
-  <si>
     <t>${device.groupName}</t>
   </si>
   <si>
-    <t>Period:</t>
-  </si>
-  <si>
     <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Start Address</t>
-  </si>
-  <si>
-    <t>Odometer</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Engine Hours</t>
-  </si>
-  <si>
-    <t>Spent Fuel</t>
-  </si>
-  <si>
     <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", stop.startTime, locale, timezone)}</t>
   </si>
   <si>
@@ -138,12 +103,48 @@
   </si>
   <si>
     <t>${volumeUnit.equals("impGal") ? "".format("%.1f Imp. Gal", stop.spentFuel / 4.546) : volumeUnit.equals("usGal") ? "".format("%.1f U.S. Gal", stop.spentFuel / 3.785) : "".format("%.1f l", stop.spentFuel)}</t>
+  </si>
+  <si>
+    <t>Tipo de Reporte:</t>
+  </si>
+  <si>
+    <t>Dispositivo:</t>
+  </si>
+  <si>
+    <t>Grupo:</t>
+  </si>
+  <si>
+    <t>Periodo:</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Dirección de Inicio</t>
+  </si>
+  <si>
+    <t>Kilometraje</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Horas de Motor</t>
+  </si>
+  <si>
+    <t>Combistible consumido</t>
+  </si>
+  <si>
+    <t>Paradas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="[h]&quot; h &quot;m&quot; min &quot;s&quot; s&quot;"/>
@@ -286,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -294,7 +295,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -307,11 +308,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -344,7 +344,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,7 +444,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -487,7 +493,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -530,7 +542,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -823,14 +841,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875"/>
     <col min="2" max="2" width="47.85546875"/>
@@ -853,10 +871,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -875,10 +893,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -888,10 +906,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -901,12 +919,12 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -914,57 +932,57 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="G9" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
